--- a/biology/Zoologie/Gladiateur_bacbakiri/Gladiateur_bacbakiri.xlsx
+++ b/biology/Zoologie/Gladiateur_bacbakiri/Gladiateur_bacbakiri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gladiateur bacbakiri (Telophorus zeylonus) est une espèce de passereaux appartenant à la famille des Malaconotidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique à l'Afrique australe, principalement en Afrique du Sud et en Namibie, avec une population isolée dans les montagnes de l'est du Zimbabwe et de l'ouest du Mozambique.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de milieux ouverts, comme les maquis du désert du Karoo, les fynbos et les parcs et jardins dans les zones urbaines. 
 </t>
@@ -573,7 +589,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid en forme de coupe est construit dans une haie, des broussailles ou la fourche d'un arbre. La femelle y pond de 2 à 6, généralement trois, œufs brun-rouge ou lilas marbrés de bleu-vert qui sont couvés par les deux sexes pendant environ 16 jours avec 18 autres jours pour la mue imaginale.
 </t>
